--- a/Par Levels Store/Columbia_par_level.xlsx
+++ b/Par Levels Store/Columbia_par_level.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Par_Level_updates\Par Levels Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75891FC1-A947-45B7-9C25-5A7E66F4ADF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216FC19-5A03-484B-A0F7-752771BDE3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B525CD2-655D-4F14-A2AC-27DBEC5DD791}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="181">
   <si>
     <t>Category</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Coolatta Vanilla Bean 4/64 ounce bottles</t>
   </si>
   <si>
-    <t>Cream cheese 8 ounce RE Plain 12 12/8 OZ</t>
-  </si>
-  <si>
     <t>Cream Cheese Plain RE 1.5/48</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>JB Apple Fritter 3 ounce 72 per case</t>
   </si>
   <si>
-    <t>Glaze Ready to Use 55 pounds 1/55 LB</t>
-  </si>
-  <si>
     <t>Flatbread Wrap Chicken Poblano 27ct</t>
   </si>
   <si>
@@ -333,256 +327,251 @@
     <t>LID POLY FOR DW HOT CUPS 1200 PER CASE</t>
   </si>
   <si>
+    <t>Bacon Cherrywood 4/150 4/150</t>
+  </si>
+  <si>
+    <t>Pork Sausage Patty 106 per case 1/106</t>
+  </si>
+  <si>
+    <t>Turkey Sausage Patty 106 per case 1/106 CT</t>
+  </si>
+  <si>
+    <t>Muffin Chocolate Chip RS 96 per case 96/PER CASE</t>
+  </si>
+  <si>
+    <t>Ketchup Packet 1500/9 G</t>
+  </si>
+  <si>
+    <t>Sandwich Wrap 2000 per case</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC DECAF 24/16 OUNCE</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC FRENCH VANILLA 24/16OZ</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC REGULAR 24/16 OUNCE</t>
+  </si>
+  <si>
+    <t>COFFEE WHOLE BEAN POC REGULAR 24/16 OZ</t>
+  </si>
+  <si>
+    <t>Loaf Pumpkin Sliced Wrapped 20 per case</t>
+  </si>
+  <si>
+    <t>Hashbrown Portion Bag plastic 2000 count 2000/*</t>
+  </si>
+  <si>
+    <t>Universal Sleeve Original 2000 per case</t>
+  </si>
+  <si>
+    <t>Diet Pepsi 24/20 ounce 24/20 OZ</t>
+  </si>
+  <si>
+    <t>Mountain Dew 24/20 ounce</t>
+  </si>
+  <si>
+    <t>Pepsi Regular 24/20 ounce 24/20 OZ</t>
+  </si>
+  <si>
+    <t>Pepsi Zero Sugar 24/20 ounce</t>
+  </si>
+  <si>
+    <t>Starry Lemon Lime 24/20 ounce</t>
+  </si>
+  <si>
+    <t>Loaf Iced Strawberry Lemon Wrapped 20 ct</t>
+  </si>
+  <si>
+    <t>FTO Braided Apple Strudel 108 count</t>
+  </si>
+  <si>
+    <t>Liquid Cane Sugar Bag In Box 2 per case</t>
+  </si>
+  <si>
+    <t>Sweetener Equal 2000 per case 2000/0.8 GRAMS</t>
+  </si>
+  <si>
+    <t>Sweetener Stevia 1000 per case 1/3.1</t>
+  </si>
+  <si>
+    <t>Sugar Packets 2000 per case 1000/*</t>
+  </si>
+  <si>
+    <t>BULK Splenda 12 Pounds 12/1 LB</t>
+  </si>
+  <si>
+    <t>Sweetener Stevia 1000 per case</t>
+  </si>
+  <si>
+    <t>EXTRAFINE COFFEE SUGAR 50 POUND BAG</t>
+  </si>
+  <si>
+    <t>Swirl Butter Pecan 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl Caramel 6/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl French Vanilla 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl Mint Chocolate Chip 4/64 oz</t>
+  </si>
+  <si>
+    <t>Swirl Mocha 6/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl Pumpkin 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Syrup Berry Burst Dunkin Energy 4/64oz</t>
+  </si>
+  <si>
+    <t>Syrup Brown Sugar 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Syrup Peach Sunshine Dnkn Energy 4/64oz</t>
+  </si>
+  <si>
+    <t>Syrup Pumpable Coffee 4/64 Ounce Bottles</t>
+  </si>
+  <si>
+    <t>Syrup Secret Dunkin Energy 4/64oz</t>
+  </si>
+  <si>
+    <t>Tea Black Bold Breakfast Pyramid 6/15 ct 15/90 CT</t>
+  </si>
+  <si>
+    <t>Chai Tea Concentrate 6/30 ounce</t>
+  </si>
+  <si>
+    <t>Tea Herbal Cool Mint Pyramid 6/15 count 15/90 CT</t>
+  </si>
+  <si>
+    <t>DD Decaf Black Pyramid Tea 6/15 CT</t>
+  </si>
+  <si>
+    <t>Tea Iced Green Tea 32 bags 32/2 OZ</t>
+  </si>
+  <si>
+    <t>Tea Iced Green Tea 32 bags</t>
+  </si>
+  <si>
+    <t>TORTILLA FLOUR 5.5 INCH RES 576 PER CASE</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Do not count (Equipment/Cleaning)</t>
+  </si>
+  <si>
+    <t>POLAND SPRING WATER D 24/20 OUNCE</t>
+  </si>
+  <si>
+    <t>Munchkin Box</t>
+  </si>
+  <si>
+    <t>K Cup Coffee Original 6/12</t>
+  </si>
+  <si>
+    <t>Milk Chug Whole Chocolate 12/14 ounce 12/14 OZ</t>
+  </si>
+  <si>
+    <t>Milk Chug Whole 12/14 ounce 12/14 OZ</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC MIDNIGHT 24/16OZ</t>
+  </si>
+  <si>
+    <t>DD Condiment Station (Secondary)</t>
+  </si>
+  <si>
+    <t>Tumbler Stainless Donut 6/22oz per case</t>
+  </si>
+  <si>
+    <t>Tumbler Stainless Donut 6/22oz per case 1/6</t>
+  </si>
+  <si>
+    <t>Beach Holder Keychain Merchandiser 12 ct</t>
+  </si>
+  <si>
+    <t>Beverage Labels 30 Rolls 30/1 CARTON CS</t>
+  </si>
+  <si>
+    <t>Roll Towel White 6/800 feet</t>
+  </si>
+  <si>
+    <t>Hot Cup 6 oz Paper 1000 per case 1000/6 OZ</t>
+  </si>
+  <si>
+    <t>Swirl Cookie Dough 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toilet Tissue Jumbo 12 per case 1/12 CT	</t>
+  </si>
+  <si>
+    <t>Sipper Acrylic Bamboo Lid CMT 6/24 ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland Springs Sparkling Water 24/16.9oz 24/16.9 OZ	</t>
+  </si>
+  <si>
+    <t>Par Level/ Case</t>
+  </si>
+  <si>
+    <t>In the Store</t>
+  </si>
+  <si>
+    <t>Need to Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If par level is blank use your best judgement for order or reach out to Bob/Kim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+OCEAN SPRAY CRANBERRY COCKTAIL 12/15.2OZ</t>
+  </si>
+  <si>
+    <t>K Cup Coffee Dunkin' Midnight 6/12</t>
+  </si>
+  <si>
+    <t>Tea Green Harmony Leaf Pyramid 6/15 ct</t>
+  </si>
+  <si>
+    <t>PG Quat Sanitizer 3/1 Gal Clean Quick</t>
+  </si>
+  <si>
+    <t>Sipper Iced with Keychain CMT 12/24oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Wipes 150 per case 150 WIPES/CASE	</t>
+  </si>
+  <si>
+    <t>College Tumbler Penn State 6/24 ounce</t>
+  </si>
+  <si>
+    <t>Dog Toys Barkbox 2025 8 count 1/8 COUNT</t>
+  </si>
+  <si>
     <t>Maple Sugar Bacon Rub 10/3 ounce</t>
   </si>
   <si>
-    <t>Bacon Cherrywood 4/150 4/150</t>
-  </si>
-  <si>
-    <t>Pork Sausage Patty 106 per case 1/106</t>
-  </si>
-  <si>
-    <t>Turkey Sausage Patty 106 per case 1/106 CT</t>
-  </si>
-  <si>
-    <t>Muffin Blueberry RS 96 per case 96/PER CASE</t>
-  </si>
-  <si>
-    <t>Muffin Chocolate Chip RS 96 per case 96/PER CASE</t>
-  </si>
-  <si>
-    <t>Muffin Coffee Cake RS 96 per case 96/PER CASE</t>
-  </si>
-  <si>
-    <t>Ketchup Packet 1500/9 G</t>
-  </si>
-  <si>
-    <t>Sandwich Wrap 2000 per case</t>
-  </si>
-  <si>
-    <t>COFFEE GROUND POC DECAF 24/16 OUNCE</t>
-  </si>
-  <si>
-    <t>COFFEE GROUND POC FRENCH VANILLA 24/16OZ</t>
-  </si>
-  <si>
-    <t>COFFEE GROUND POC REGULAR 24/16 OUNCE</t>
-  </si>
-  <si>
-    <t>COFFEE WHOLE BEAN POC REGULAR 24/16 OZ</t>
-  </si>
-  <si>
-    <t>Loaf Pumpkin Sliced Wrapped 20 per case</t>
-  </si>
-  <si>
-    <t>Hashbrown Portion Bag plastic 2000 count 2000/*</t>
-  </si>
-  <si>
-    <t>Universal Sleeve Original 2000 per case</t>
-  </si>
-  <si>
-    <t>Diet Pepsi 24/20 ounce 24/20 OZ</t>
-  </si>
-  <si>
-    <t>Mountain Dew 24/20 ounce</t>
-  </si>
-  <si>
-    <t>Pepsi Regular 24/20 ounce 24/20 OZ</t>
-  </si>
-  <si>
-    <t>Pepsi Zero Sugar 24/20 ounce</t>
-  </si>
-  <si>
-    <t>Starry Lemon Lime 24/20 ounce</t>
-  </si>
-  <si>
-    <t>Loaf Iced Strawberry Lemon Wrapped 20 ct</t>
-  </si>
-  <si>
-    <t>FTO Braided Apple Strudel 108 count</t>
-  </si>
-  <si>
-    <t>Liquid Cane Sugar Bag In Box 2 per case</t>
-  </si>
-  <si>
-    <t>Sweetener Equal 2000 per case 2000/0.8 GRAMS</t>
-  </si>
-  <si>
-    <t>Sweetener Stevia 1000 per case 1/3.1</t>
-  </si>
-  <si>
-    <t>Sugar Packets 2000 per case 1000/*</t>
-  </si>
-  <si>
-    <t>BULK Splenda 12 Pounds 12/1 LB</t>
-  </si>
-  <si>
-    <t>Sweetener Stevia 1000 per case</t>
-  </si>
-  <si>
-    <t>EXTRAFINE COFFEE SUGAR 50 POUND BAG</t>
-  </si>
-  <si>
-    <t>Swirl Butter Pecan 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl Caramel 6/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl French Vanilla 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl Mint Chocolate Chip 4/64 oz</t>
-  </si>
-  <si>
-    <t>Swirl Mocha 6/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl Pumpkin 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Syrup Berry Burst Dunkin Energy 4/64oz</t>
-  </si>
-  <si>
-    <t>Syrup Brown Sugar 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Syrup Peach Sunshine Dnkn Energy 4/64oz</t>
-  </si>
-  <si>
-    <t>Syrup Pumpable Coffee 4/64 Ounce Bottles</t>
-  </si>
-  <si>
-    <t>Syrup Secret Dunkin Energy 4/64oz</t>
-  </si>
-  <si>
-    <t>Tea Black Bold Breakfast Pyramid 6/15 ct 15/90 CT</t>
-  </si>
-  <si>
-    <t>Chai Tea Concentrate 6/30 ounce</t>
-  </si>
-  <si>
-    <t>Tea Herbal Cool Mint Pyramid 6/15 count 15/90 CT</t>
-  </si>
-  <si>
-    <t>DD Decaf Black Pyramid Tea 6/15 CT</t>
-  </si>
-  <si>
-    <t>Tea Iced Green Tea 32 bags 32/2 OZ</t>
-  </si>
-  <si>
-    <t>Tea Iced Green Tea 32 bags</t>
-  </si>
-  <si>
-    <t>TORTILLA FLOUR 5.5 INCH RES 576 PER CASE</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>Do not count (Equipment/Cleaning)</t>
-  </si>
-  <si>
-    <t>POLAND SPRING WATER D 24/20 OUNCE</t>
-  </si>
-  <si>
-    <t>Munchkin Box</t>
-  </si>
-  <si>
-    <t>Icing NAT Color Chocolate 22 pounds</t>
-  </si>
-  <si>
-    <t>K Cup Coffee Original 6/12</t>
-  </si>
-  <si>
-    <t>Milk Chug Whole Chocolate 12/14 ounce 12/14 OZ</t>
-  </si>
-  <si>
-    <t>Milk Chug Whole 12/14 ounce 12/14 OZ</t>
-  </si>
-  <si>
-    <t>Plastic Knife Unwrapped 1000/case</t>
-  </si>
-  <si>
-    <t>Maple Sugar Bacon Rub 10/3 ounce 10/3 OZ</t>
-  </si>
-  <si>
-    <t>COFFEE GROUND POC MIDNIGHT 24/16OZ</t>
-  </si>
-  <si>
-    <t>DD Condiment Station (Secondary)</t>
-  </si>
-  <si>
-    <t>Tumbler Stainless Donut 6/22oz per case</t>
-  </si>
-  <si>
-    <t>Tumbler Stainless Donut 6/22oz per case 1/6</t>
-  </si>
-  <si>
-    <t>Beach Holder Keychain Merchandiser 12 ct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue Wipes 150 per case 150 WIPES/CASE	</t>
-  </si>
-  <si>
-    <t>Beverage Labels 30 Rolls 30/1 CARTON CS</t>
-  </si>
-  <si>
     <t xml:space="preserve">On-the-Go Stickers 8 rolls/cv 1/8 /1000CT	</t>
   </si>
   <si>
     <t xml:space="preserve">PG Dish Detergent 4/1 Gal Dawn 4/*	</t>
   </si>
   <si>
-    <t>Roll Towel White 6/800 feet</t>
-  </si>
-  <si>
-    <t>Printer DayMark</t>
-  </si>
-  <si>
-    <t>Hot Cup 6 oz Paper 1000 per case 1000/6 OZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Honey Packet 408/9 G 408/9G	</t>
   </si>
   <si>
-    <t>Swirl Cookie Dough 4/64 ounce bottles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tea Herbal Chamomile Pyramid 6/15 count 15/90 CT	</t>
   </si>
   <si>
     <t xml:space="preserve">Tea Herbal Hibiscus Kiss Pyramid 6/15 ct 15/90 CT	</t>
-  </si>
-  <si>
-    <t>Thermal Register Paper 3 1/8 50 pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toilet Tissue Jumbo 12 per case 1/12 CT	</t>
-  </si>
-  <si>
-    <t>Sipper Acrylic Bamboo Lid CMT 6/24 ounce</t>
-  </si>
-  <si>
-    <t>Dunkin Visor 2021 6 Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland Springs Sparkling Water 24/16.9oz 24/16.9 OZ	</t>
-  </si>
-  <si>
-    <t>Par Level/ Case</t>
-  </si>
-  <si>
-    <t>In the Store</t>
-  </si>
-  <si>
-    <t>Need to Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If par level is blank use your best judgement for order or reach out to Bob/Kim. </t>
-  </si>
-  <si>
-    <t>OCEAN SPRAY CRANBERRY COCKTAIL 12/15.2OZ</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +993,7 @@
   <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1008,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1038,168 +1027,168 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7">
+        <v>914841</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="8">
-        <v>914841</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="D3" s="7">
-        <v>0.98</v>
+        <v>0.62</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="8">
-        <v>914240</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>117</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="7">
+        <v>914215</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D4" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="8">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7">
         <v>915030</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>86</v>
+      <c r="C5" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D5" s="7">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="8">
-        <v>914215</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>62</v>
+      </c>
+      <c r="B6" s="7">
+        <v>914211</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="7">
-        <v>0.25</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="8">
-        <v>150205</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>156</v>
+        <v>62</v>
+      </c>
+      <c r="B7" s="7">
+        <v>914212</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="D7" s="7">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="8">
-        <v>150505</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>155</v>
+        <v>62</v>
+      </c>
+      <c r="B8" s="7">
+        <v>914748</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D8" s="7">
-        <v>0.15</v>
+        <v>1.08</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="8">
-        <v>914241</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>118</v>
+        <v>62</v>
+      </c>
+      <c r="B9" s="7">
+        <v>150505</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D9" s="7">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="8">
-        <v>914212</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>184</v>
+        <v>62</v>
+      </c>
+      <c r="B10" s="7">
+        <v>150205</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="D10" s="7">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="8">
-        <v>914238</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>119</v>
+        <v>62</v>
+      </c>
+      <c r="B11" s="7">
+        <v>914240</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D11" s="7">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="8">
-        <v>914243</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>120</v>
+        <v>62</v>
+      </c>
+      <c r="B12" s="7">
+        <v>914241</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D12" s="7">
         <v>0.25</v>
@@ -1209,64 +1198,64 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="8">
-        <v>214800</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>151</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="7">
+        <v>914238</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D13" s="7">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="8">
-        <v>914244</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>121</v>
+        <v>62</v>
+      </c>
+      <c r="B14" s="7">
+        <v>914243</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D14" s="7">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="8">
-        <v>914211</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>90</v>
+        <v>62</v>
+      </c>
+      <c r="B15" s="7">
+        <v>914244</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D15" s="7">
-        <v>0.92</v>
+        <v>0.12</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="8">
-        <v>914748</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="B16" s="7">
+        <v>214800</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="D16" s="7">
-        <v>1.79</v>
+        <v>0.92</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1275,13 +1264,15 @@
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="8">
-        <v>245085</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="7"/>
+      <c r="B17" s="7">
+        <v>233268</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
@@ -1289,25 +1280,27 @@
       <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="8">
-        <v>911923</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="7"/>
+      <c r="B18" s="7">
+        <v>233271</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="8">
-        <v>233271</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>76</v>
+        <v>152</v>
+      </c>
+      <c r="B19" s="7">
+        <v>914935</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
@@ -1317,32 +1310,32 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="8">
-        <v>233268</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>911586</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="8">
-        <v>914935</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>912373</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1351,14 +1344,14 @@
       <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="8">
-        <v>913040</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>28</v>
+      <c r="B22" s="7">
+        <v>912371</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>2.27</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1367,14 +1360,14 @@
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="8">
-        <v>914369</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>51</v>
+      <c r="B23" s="7">
+        <v>911682</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>2.67</v>
+        <v>0.17</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1383,14 +1376,14 @@
       <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="8">
-        <v>914687</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>52</v>
+      <c r="B24" s="7">
+        <v>911585</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>5.32</v>
+        <v>4.54</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1399,14 +1392,14 @@
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="8">
-        <v>913645</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>72</v>
+      <c r="B25" s="7">
+        <v>913040</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1415,14 +1408,14 @@
       <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="8">
-        <v>910958</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>71</v>
+      <c r="B26" s="7">
+        <v>914369</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="7">
-        <v>8.85</v>
+        <v>2.08</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1431,14 +1424,14 @@
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="8">
-        <v>914370</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>73</v>
+      <c r="B27" s="7">
+        <v>914687</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="7">
-        <v>3.21</v>
+        <v>3.82</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1447,14 +1440,14 @@
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="8">
-        <v>912373</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>7</v>
+      <c r="B28" s="7">
+        <v>910958</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="D28" s="7">
-        <v>2.04</v>
+        <v>6.02</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1463,14 +1456,14 @@
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="8">
-        <v>912371</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>8</v>
+      <c r="B29" s="7">
+        <v>913645</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D29" s="7">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1479,14 +1472,14 @@
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="8">
-        <v>913977</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>78</v>
+      <c r="B30" s="7">
+        <v>914370</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D30" s="7">
-        <v>1.74</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -1495,14 +1488,14 @@
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="8">
-        <v>914761</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>123</v>
+      <c r="B31" s="7">
+        <v>913977</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D31" s="7">
-        <v>0.51</v>
+        <v>0.96</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1511,14 +1504,14 @@
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="8">
-        <v>911586</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>6</v>
+      <c r="B32" s="7">
+        <v>912034</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D32" s="7">
-        <v>0.45</v>
+        <v>6.83</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -1527,14 +1520,14 @@
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="8">
-        <v>911682</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>9</v>
+      <c r="B33" s="7">
+        <v>914693</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D33" s="7">
-        <v>0.23</v>
+        <v>2.63</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -1543,14 +1536,14 @@
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="8">
-        <v>911585</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>10</v>
+      <c r="B34" s="7">
+        <v>914863</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="D34" s="7">
-        <v>5.51</v>
+        <v>0.8</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -1559,14 +1552,14 @@
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="8">
-        <v>912034</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>88</v>
+      <c r="B35" s="7">
+        <v>912615</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="D35" s="7">
-        <v>8.5</v>
+        <v>0.02</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -1575,14 +1568,14 @@
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="8">
-        <v>914919</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>122</v>
+      <c r="B36" s="7">
+        <v>914995</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D36" s="7">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -1591,14 +1584,14 @@
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="8">
-        <v>914995</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>114</v>
+      <c r="B37" s="7">
+        <v>914919</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -1607,14 +1600,14 @@
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="8">
-        <v>911075</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>158</v>
+      <c r="B38" s="7">
+        <v>914761</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -1623,94 +1616,94 @@
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="8">
-        <v>912618</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>105</v>
+      <c r="B39" s="7">
+        <v>911323</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="D39" s="7">
-        <v>0.27</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="8">
-        <v>912615</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>106</v>
+        <v>11</v>
+      </c>
+      <c r="B40" s="7">
+        <v>914953</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D40" s="7">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="8">
-        <v>912616</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>107</v>
+        <v>11</v>
+      </c>
+      <c r="B41" s="7">
+        <v>913678</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D41" s="7">
-        <v>0.33</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="8">
-        <v>914693</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="B42" s="7">
+        <v>206250</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="D42" s="7">
-        <v>4.1100000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="8">
-        <v>911323</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>148</v>
+        <v>11</v>
+      </c>
+      <c r="B43" s="7">
+        <v>201200</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D43" s="7">
-        <v>2.17</v>
+        <v>0.17</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="8">
-        <v>914863</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>104</v>
+        <v>11</v>
+      </c>
+      <c r="B44" s="7">
+        <v>202400</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D44" s="7">
-        <v>1.3</v>
+        <v>0.17</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -1719,14 +1712,14 @@
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="8">
-        <v>914953</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>163</v>
+      <c r="B45" s="7">
+        <v>913820</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="D45" s="7">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -1735,14 +1728,14 @@
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="8">
-        <v>201200</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>110</v>
+      <c r="B46" s="7">
+        <v>200200</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="D46" s="7">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -1751,14 +1744,14 @@
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="8">
-        <v>202400</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>111</v>
+      <c r="B47" s="7">
+        <v>200110</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="D47" s="7">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -1767,78 +1760,78 @@
       <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="8">
-        <v>913820</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>159</v>
+      <c r="B48" s="7">
+        <v>914935</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D48" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="8">
-        <v>200200</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="B49" s="7">
+        <v>912435</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D49" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.38</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="8">
-        <v>200110</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="B50" s="7">
+        <v>914938</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D50" s="7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="8">
-        <v>206250</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>154</v>
+        <v>3</v>
+      </c>
+      <c r="B51" s="7">
+        <v>913560</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D51" s="7">
-        <v>0.08</v>
+        <v>1.25</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="8">
-        <v>914935</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>162</v>
+        <v>3</v>
+      </c>
+      <c r="B52" s="7">
+        <v>913960</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -1847,14 +1840,14 @@
       <c r="A53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8">
-        <v>914938</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>13</v>
+      <c r="B53" s="7">
+        <v>912939</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D53" s="7">
-        <v>1.58</v>
+        <v>4</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -1863,14 +1856,14 @@
       <c r="A54" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="8">
-        <v>912513</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>22</v>
+      <c r="B54" s="7">
+        <v>914343</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D54" s="7">
-        <v>0.68</v>
+        <v>0.35</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -1879,14 +1872,14 @@
       <c r="A55" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="8">
-        <v>914343</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>19</v>
+      <c r="B55" s="7">
+        <v>914223</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D55" s="7">
-        <v>0.52</v>
+        <v>0.83</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -1895,14 +1888,14 @@
       <c r="A56" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="8">
-        <v>300131</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>53</v>
+      <c r="B56" s="7">
+        <v>914722</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D56" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -1911,14 +1904,14 @@
       <c r="A57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="8">
-        <v>300130</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>92</v>
+      <c r="B57" s="7">
+        <v>912513</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D57" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -1927,14 +1920,14 @@
       <c r="A58" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="8">
-        <v>911689</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>128</v>
+      <c r="B58" s="7">
+        <v>912511</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D58" s="7">
-        <v>2</v>
+        <v>0.53</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -1943,14 +1936,14 @@
       <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="8">
-        <v>911490</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>143</v>
+      <c r="B59" s="7">
+        <v>914224</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D59" s="7">
-        <v>1.67</v>
+        <v>0.23</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -1959,14 +1952,14 @@
       <c r="A60" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="8">
-        <v>914986</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>27</v>
+      <c r="B60" s="7">
+        <v>914225</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -1975,14 +1968,14 @@
       <c r="A61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="8">
-        <v>200000</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>32</v>
+      <c r="B61" s="7">
+        <v>914754</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D61" s="7">
-        <v>2.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -1991,14 +1984,14 @@
       <c r="A62" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="8">
-        <v>201000</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>34</v>
+      <c r="B62" s="7">
+        <v>914986</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D62" s="7">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -2007,14 +2000,14 @@
       <c r="A63" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="8">
-        <v>204177</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>33</v>
+      <c r="B63" s="7">
+        <v>200000</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D63" s="7">
-        <v>5.08</v>
+        <v>1.5</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -2023,14 +2016,14 @@
       <c r="A64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="8">
-        <v>913425</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>95</v>
+      <c r="B64" s="7">
+        <v>204177</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D64" s="7">
-        <v>0.42</v>
+        <v>3.58</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -2039,14 +2032,14 @@
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="8">
-        <v>911100</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>97</v>
+      <c r="B65" s="7">
+        <v>201000</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D65" s="7">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -2055,14 +2048,14 @@
       <c r="A66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="8">
-        <v>911099</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>93</v>
+      <c r="B66" s="7">
+        <v>206000</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D66" s="7">
-        <v>3.24</v>
+        <v>4.25</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -2071,14 +2064,14 @@
       <c r="A67" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="8">
-        <v>911757</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>54</v>
+      <c r="B67" s="7">
+        <v>206200</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D67" s="7">
-        <v>0.79</v>
+        <v>0.25</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -2087,14 +2080,14 @@
       <c r="A68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="8">
-        <v>911758</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>55</v>
+      <c r="B68" s="7">
+        <v>914656</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D68" s="7">
-        <v>5.57</v>
+        <v>5.75</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -2103,14 +2096,14 @@
       <c r="A69" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="8">
-        <v>911759</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>56</v>
+      <c r="B69" s="7">
+        <v>914825</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D69" s="7">
-        <v>4.7699999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -2119,14 +2112,14 @@
       <c r="A70" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="8">
-        <v>911101</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>94</v>
+      <c r="B70" s="7">
+        <v>913537</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D70" s="7">
-        <v>2</v>
+        <v>0.11</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -2135,14 +2128,14 @@
       <c r="A71" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="8">
-        <v>913424</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>96</v>
+      <c r="B71" s="7">
+        <v>911059</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D71" s="7">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -2151,14 +2144,14 @@
       <c r="A72" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="8">
-        <v>911372</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>98</v>
+      <c r="B72" s="7">
+        <v>912381</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D72" s="7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -2167,14 +2160,14 @@
       <c r="A73" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="8">
-        <v>911059</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>43</v>
+      <c r="B73" s="7">
+        <v>260020</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D73" s="7">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -2183,14 +2176,14 @@
       <c r="A74" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="8">
-        <v>912381</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>44</v>
+      <c r="B74" s="7">
+        <v>300131</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D74" s="7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -2199,14 +2192,14 @@
       <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="8">
-        <v>260020</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>45</v>
+      <c r="B75" s="7">
+        <v>911757</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D75" s="7">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -2215,14 +2208,14 @@
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="8">
-        <v>912018</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>145</v>
+      <c r="B76" s="7">
+        <v>911758</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D76" s="7">
-        <v>0.33</v>
+        <v>3.81</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -2231,14 +2224,14 @@
       <c r="A77" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="8">
-        <v>912320</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>74</v>
+      <c r="B77" s="7">
+        <v>911759</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D77" s="7">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -2247,14 +2240,14 @@
       <c r="A78" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="8">
-        <v>914825</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>38</v>
+      <c r="B78" s="7">
+        <v>913584</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D78" s="7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -2263,14 +2256,14 @@
       <c r="A79" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="8">
-        <v>914223</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>20</v>
+      <c r="B79" s="7">
+        <v>914182</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="D79" s="7">
-        <v>1.21</v>
+        <v>0.93</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -2279,14 +2272,14 @@
       <c r="A80" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="8">
-        <v>914722</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>21</v>
+      <c r="B80" s="7">
+        <v>914181</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D80" s="7">
-        <v>0.76</v>
+        <v>1.08</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -2295,14 +2288,14 @@
       <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="8">
-        <v>913537</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>39</v>
+      <c r="B81" s="7">
+        <v>914180</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D81" s="7">
-        <v>0.14000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -2311,14 +2304,14 @@
       <c r="A82" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="8">
-        <v>913584</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>57</v>
+      <c r="B82" s="7">
+        <v>914183</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D82" s="7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -2327,14 +2320,14 @@
       <c r="A83" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="8">
-        <v>206000</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>35</v>
+      <c r="B83" s="7">
+        <v>912320</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D83" s="7">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -2343,14 +2336,14 @@
       <c r="A84" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="8">
-        <v>206200</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>36</v>
+      <c r="B84" s="7">
+        <v>913590</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D84" s="7">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -2359,14 +2352,14 @@
       <c r="A85" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="8">
-        <v>250000</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>130</v>
+      <c r="B85" s="7">
+        <v>913589</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D85" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -2375,14 +2368,14 @@
       <c r="A86" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="8">
-        <v>913590</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="B86" s="7">
+        <v>913300</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D86" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -2391,10 +2384,10 @@
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="8">
-        <v>913589</v>
-      </c>
-      <c r="C87" s="9" t="s">
+      <c r="B87" s="7">
+        <v>913342</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D87" s="7">
@@ -2407,11 +2400,11 @@
       <c r="A88" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="8">
-        <v>913342</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>82</v>
+      <c r="B88" s="7">
+        <v>913588</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -2423,11 +2416,11 @@
       <c r="A89" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="8">
-        <v>913588</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>83</v>
+      <c r="B89" s="7">
+        <v>913587</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D89" s="7">
         <v>1</v>
@@ -2439,14 +2432,14 @@
       <c r="A90" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="8">
-        <v>913587</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>84</v>
+      <c r="B90" s="7">
+        <v>915030</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D90" s="7">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -2455,14 +2448,14 @@
       <c r="A91" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="8">
-        <v>913300</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>81</v>
+      <c r="B91" s="7">
+        <v>914380</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D91" s="7">
-        <v>2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -2471,14 +2464,14 @@
       <c r="A92" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="8">
-        <v>915030</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>87</v>
+      <c r="B92" s="7">
+        <v>300130</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D92" s="7">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -2487,14 +2480,14 @@
       <c r="A93" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="8">
-        <v>312799</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>115</v>
+      <c r="B93" s="7">
+        <v>911099</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D93" s="7">
-        <v>0.92</v>
+        <v>2.17</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -2503,14 +2496,14 @@
       <c r="A94" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="8">
-        <v>914380</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>89</v>
+      <c r="B94" s="7">
+        <v>911101</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D94" s="7">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -2519,14 +2512,14 @@
       <c r="A95" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="8">
-        <v>914180</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>60</v>
+      <c r="B95" s="7">
+        <v>913425</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D95" s="7">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -2535,14 +2528,14 @@
       <c r="A96" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="8">
-        <v>914181</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>59</v>
+      <c r="B96" s="7">
+        <v>913424</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D96" s="7">
-        <v>1.46</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
@@ -2551,14 +2544,14 @@
       <c r="A97" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="8">
-        <v>914182</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>58</v>
+      <c r="B97" s="7">
+        <v>911100</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D97" s="7">
-        <v>1.27</v>
+        <v>0.32</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -2567,14 +2560,14 @@
       <c r="A98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="8">
-        <v>914183</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>61</v>
+      <c r="B98" s="7">
+        <v>911372</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="D98" s="7">
-        <v>0.56000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -2583,11 +2576,11 @@
       <c r="A99" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>300120</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>99</v>
+      <c r="C99" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D99" s="7">
         <v>0</v>
@@ -2599,14 +2592,14 @@
       <c r="A100" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="8">
-        <v>914656</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>37</v>
+      <c r="B100" s="7">
+        <v>914665</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D100" s="7">
-        <v>8.85</v>
+        <v>1.31</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -2615,11 +2608,11 @@
       <c r="A101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>914848</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>108</v>
+      <c r="C101" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D101" s="7">
         <v>0</v>
@@ -2631,14 +2624,14 @@
       <c r="A102" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="8">
-        <v>913560</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>14</v>
+      <c r="B102" s="7">
+        <v>913991</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="D102" s="7">
-        <v>1.92</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -2647,14 +2640,14 @@
       <c r="A103" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="8">
-        <v>914665</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>100</v>
+      <c r="B103" s="7">
+        <v>312799</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D103" s="7">
-        <v>1.8</v>
+        <v>0.78</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -2663,14 +2656,14 @@
       <c r="A104" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="8">
-        <v>267082</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>124</v>
+      <c r="B104" s="7">
+        <v>914851</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D104" s="7">
-        <v>2.5</v>
+        <v>0.41</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
@@ -2679,14 +2672,14 @@
       <c r="A105" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="8">
-        <v>913960</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>15</v>
+      <c r="B105" s="7">
+        <v>267082</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D105" s="7">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
@@ -2695,14 +2688,14 @@
       <c r="A106" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="8">
-        <v>912435</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>12</v>
+      <c r="B106" s="7">
+        <v>252000</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="D106" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -2711,14 +2704,14 @@
       <c r="A107" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="8">
-        <v>912511</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>23</v>
+      <c r="B107" s="7">
+        <v>913529</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D107" s="7">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -2727,14 +2720,14 @@
       <c r="A108" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="8">
-        <v>914224</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>24</v>
+      <c r="B108" s="7">
+        <v>250500</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D108" s="7">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -2743,14 +2736,14 @@
       <c r="A109" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="8">
-        <v>914225</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>25</v>
+      <c r="B109" s="7">
+        <v>911689</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D109" s="7">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
@@ -2759,13 +2752,15 @@
       <c r="A110" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="8">
-        <v>914131</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D110" s="7"/>
+      <c r="B110" s="7">
+        <v>913529</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="7">
+        <v>0</v>
+      </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
@@ -2773,14 +2768,14 @@
       <c r="A111" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="8">
-        <v>913991</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>109</v>
+      <c r="B111" s="7">
+        <v>250000</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="D111" s="7">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
@@ -2789,14 +2784,14 @@
       <c r="A112" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="8">
-        <v>914754</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>26</v>
+      <c r="B112" s="7">
+        <v>910912</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D112" s="7">
-        <v>0.2</v>
+        <v>1.75</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -2805,14 +2800,14 @@
       <c r="A113" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="8">
-        <v>912939</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>16</v>
+      <c r="B113" s="7">
+        <v>266016</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="D113" s="7">
-        <v>5.75</v>
+        <v>6.33</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -2821,14 +2816,14 @@
       <c r="A114" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="8">
-        <v>250500</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>127</v>
+      <c r="B114" s="7">
+        <v>914985</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="D114" s="7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -2837,14 +2832,14 @@
       <c r="A115" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="8">
-        <v>252000</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>125</v>
+      <c r="B115" s="7">
+        <v>910971</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="D115" s="7">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -2853,14 +2848,14 @@
       <c r="A116" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="8">
-        <v>913529</v>
-      </c>
-      <c r="C116" s="9" t="s">
+      <c r="B116" s="7">
+        <v>914807</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D116" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -2869,14 +2864,14 @@
       <c r="A117" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="8">
-        <v>913529</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>126</v>
+      <c r="B117" s="7">
+        <v>266105</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="D117" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -2885,14 +2880,14 @@
       <c r="A118" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="8">
-        <v>910912</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="B118" s="7">
+        <v>253060</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D118" s="7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -2901,14 +2896,14 @@
       <c r="A119" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="8">
-        <v>266016</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="B119" s="7">
+        <v>914402</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D119" s="7">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -2917,14 +2912,14 @@
       <c r="A120" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="8">
-        <v>914985</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>172</v>
+      <c r="B120" s="7">
+        <v>911706</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D120" s="7">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
@@ -2933,14 +2928,14 @@
       <c r="A121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="8">
-        <v>910971</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>133</v>
+      <c r="B121" s="7">
+        <v>914404</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D121" s="7">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -2949,14 +2944,14 @@
       <c r="A122" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="8">
-        <v>914807</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>134</v>
+      <c r="B122" s="7">
+        <v>911076</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D122" s="7">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -2965,14 +2960,14 @@
       <c r="A123" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="8">
-        <v>266105</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>135</v>
+      <c r="B123" s="7">
+        <v>914845</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D123" s="7">
-        <v>2.33</v>
+        <v>0.25</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -2981,14 +2976,14 @@
       <c r="A124" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="8">
-        <v>253060</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>136</v>
+      <c r="B124" s="7">
+        <v>910263</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D124" s="7">
-        <v>3.5</v>
+        <v>0.03</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
@@ -2997,14 +2992,14 @@
       <c r="A125" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="8">
-        <v>914402</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>137</v>
+      <c r="B125" s="7">
+        <v>911490</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="D125" s="7">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
@@ -3013,14 +3008,14 @@
       <c r="A126" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="8">
-        <v>911706</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>138</v>
+      <c r="B126" s="7">
+        <v>910270</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D126" s="7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -3029,14 +3024,14 @@
       <c r="A127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="8">
-        <v>914404</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>139</v>
+      <c r="B127" s="7">
+        <v>912018</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="D127" s="7">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -3045,14 +3040,14 @@
       <c r="A128" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="8">
-        <v>911076</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>140</v>
+      <c r="B128" s="7">
+        <v>910265</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="D128" s="7">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -3061,14 +3056,14 @@
       <c r="A129" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="8">
-        <v>914845</v>
-      </c>
-      <c r="C129" s="9" t="s">
+      <c r="B129" s="7">
+        <v>912745</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>141</v>
       </c>
       <c r="D129" s="7">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -3077,78 +3072,78 @@
       <c r="A130" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="8">
-        <v>910263</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="B130" s="7">
+        <v>912745</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D130" s="7">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B131" s="8">
-        <v>910270</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>144</v>
+        <v>17</v>
+      </c>
+      <c r="B131" s="7">
+        <v>914669</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D131" s="7">
-        <v>0.67</v>
+        <v>4</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132" s="8">
-        <v>912745</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>147</v>
+        <v>17</v>
+      </c>
+      <c r="B132" s="7">
+        <v>911028</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D132" s="7">
-        <v>0.5</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" s="8">
-        <v>912745</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>146</v>
+        <v>17</v>
+      </c>
+      <c r="B133" s="7">
+        <v>912639</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D133" s="7">
-        <v>0.5</v>
+        <v>1.31</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" s="8">
-        <v>914851</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>116</v>
+        <v>17</v>
+      </c>
+      <c r="B134" s="7">
+        <v>913019</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D134" s="7">
-        <v>0.74</v>
+        <v>0.22</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -3157,14 +3152,14 @@
       <c r="A135" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B135" s="8">
-        <v>266200</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>62</v>
+      <c r="B135" s="7">
+        <v>912557</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D135" s="7">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -3173,14 +3168,14 @@
       <c r="A136" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B136" s="8">
-        <v>912907</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>102</v>
+      <c r="B136" s="7">
+        <v>914677</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D136" s="7">
-        <v>5.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
@@ -3189,14 +3184,14 @@
       <c r="A137" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B137" s="8">
-        <v>911028</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>29</v>
+      <c r="B137" s="7">
+        <v>150145</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D137" s="7">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
@@ -3205,14 +3200,14 @@
       <c r="A138" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B138" s="8">
-        <v>912639</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>30</v>
+      <c r="B138" s="7">
+        <v>911403</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D138" s="7">
-        <v>2.21</v>
+        <v>0.19</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -3221,14 +3216,14 @@
       <c r="A139" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B139" s="8">
-        <v>914677</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>41</v>
+      <c r="B139" s="7">
+        <v>911405</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D139" s="7">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
@@ -3237,14 +3232,14 @@
       <c r="A140" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B140" s="8">
-        <v>150811</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>69</v>
+      <c r="B140" s="7">
+        <v>911406</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D140" s="7">
-        <v>4.17</v>
+        <v>0.21</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
@@ -3253,14 +3248,14 @@
       <c r="A141" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B141" s="8">
-        <v>914371</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>65</v>
+      <c r="B141" s="7">
+        <v>914864</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D141" s="7">
-        <v>5.83</v>
+        <v>0.33</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
@@ -3269,14 +3264,14 @@
       <c r="A142" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B142" s="8">
-        <v>914864</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>50</v>
+      <c r="B142" s="7">
+        <v>266200</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D142" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
@@ -3285,14 +3280,14 @@
       <c r="A143" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B143" s="8">
-        <v>911408</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>46</v>
+      <c r="B143" s="7">
+        <v>914371</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D143" s="7">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -3301,14 +3296,14 @@
       <c r="A144" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B144" s="8">
-        <v>911403</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>47</v>
+      <c r="B144" s="7">
+        <v>150110</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D144" s="7">
-        <v>0.28999999999999998</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -3317,14 +3312,14 @@
       <c r="A145" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B145" s="8">
-        <v>911405</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>48</v>
+      <c r="B145" s="7">
+        <v>912847</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D145" s="7">
-        <v>0.44</v>
+        <v>8</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
@@ -3333,14 +3328,14 @@
       <c r="A146" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="8">
-        <v>911406</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>49</v>
+      <c r="B146" s="7">
+        <v>150420</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D146" s="7">
-        <v>0.28999999999999998</v>
+        <v>1.25</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
@@ -3349,14 +3344,14 @@
       <c r="A147" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B147" s="8">
-        <v>912847</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>67</v>
+      <c r="B147" s="7">
+        <v>150811</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D147" s="7">
-        <v>11.33</v>
+        <v>3</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -3365,14 +3360,14 @@
       <c r="A148" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="8">
-        <v>150110</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>66</v>
+      <c r="B148" s="7">
+        <v>150240</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="D148" s="7">
-        <v>14</v>
+        <v>18.25</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -3381,14 +3376,14 @@
       <c r="A149" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B149" s="8">
-        <v>150145</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>42</v>
+      <c r="B149" s="7">
+        <v>912907</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D149" s="7">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -3397,235 +3392,215 @@
       <c r="A150" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="8">
+      <c r="B150" s="7">
         <v>913161</v>
       </c>
-      <c r="C150" s="9" t="s">
-        <v>179</v>
+      <c r="C150" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="D150" s="7">
-        <v>4.08</v>
+        <v>2.46</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="8">
-        <v>913019</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D151" s="7">
-        <v>0.4</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B151" s="7">
+        <v>911984</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B152" s="8">
-        <v>150420</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D152" s="7">
-        <v>1.75</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B152" s="7">
+        <v>352222</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B153" s="8">
-        <v>912557</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D153" s="7">
-        <v>3.84</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B153" s="7">
+        <v>915064</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B154" s="8">
-        <v>914669</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D154" s="7">
-        <v>5.5</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B154" s="7">
+        <v>913585</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B155" s="8">
-        <v>150240</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D155" s="7">
-        <v>24.5</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B155" s="7">
+        <v>915061</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B156" s="8">
-        <v>911984</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D156" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="B156" s="7">
+        <v>912511</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0.04</v>
+      </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B157" s="8">
-        <v>913634</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D157" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="B157" s="7">
+        <v>914791</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D157" s="7">
+        <v>0.17</v>
+      </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B158" s="8">
-        <v>913585</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D158" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="B158" s="7">
+        <v>914795</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" s="7">
+        <v>0</v>
+      </c>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B159" s="8">
-        <v>913941</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>169</v>
+      <c r="A159" s="7"/>
+      <c r="B159" s="7">
+        <v>911625</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B160" s="8">
-        <v>915064</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>168</v>
+      <c r="A160" s="7"/>
+      <c r="B160" s="7">
+        <v>914811</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B161" s="8">
-        <v>713102</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>175</v>
+      <c r="A161" s="7"/>
+      <c r="B161" s="7">
+        <v>913162</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B162" s="8">
-        <v>915061</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>176</v>
+      <c r="A162" s="7"/>
+      <c r="B162" s="7">
+        <v>911075</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B163" s="8">
-        <v>912511</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D163" s="7">
-        <v>0.04</v>
-      </c>
+      <c r="A163" s="7"/>
+      <c r="B163" s="7">
+        <v>915027</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B164" s="8">
-        <v>914795</v>
-      </c>
-      <c r="C164" s="9" t="s">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7">
+        <v>352299</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D164" s="7">
-        <v>0</v>
-      </c>
+      <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
-      <c r="B165" s="8">
-        <v>911625</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>164</v>
+      <c r="B165" s="7">
+        <v>914847</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -3633,11 +3608,11 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
-      <c r="B166" s="8">
-        <v>914847</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>171</v>
+      <c r="B166" s="7">
+        <v>910267</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -3645,62 +3620,44 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
-      <c r="B167" s="8">
-        <v>911075</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D167" s="7">
-        <v>1</v>
-      </c>
+      <c r="B167" s="7">
+        <v>910272</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
-      <c r="B168" s="8">
-        <v>915027</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>166</v>
-      </c>
+      <c r="B168" s="8"/>
+      <c r="C168" s="9"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
-      <c r="B169" s="8">
-        <v>352299</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="B169" s="8"/>
+      <c r="C169" s="9"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
-      <c r="B170" s="8">
-        <v>910267</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="B170" s="8"/>
+      <c r="C170" s="9"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
-      <c r="B171" s="8">
-        <v>910272</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>174</v>
-      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="9"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
